--- a/Result_Files_Key_Word_Attempt_2/Top5_Key_words_03.11.2018.xlsx
+++ b/Result_Files_Key_Word_Attempt_2/Top5_Key_words_03.11.2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>Life Cycle Stage: 1</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Overlap 4 &amp; 8</t>
   </si>
 </sst>
 </file>
@@ -357,15 +360,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -383,8 +398,100 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,10 +499,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,616 +864,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="N7" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="N8" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="N9" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="N13" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="16" t="s">
         <v>95</v>
       </c>
     </row>
